--- a/用户表单信息.xlsx
+++ b/用户表单信息.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="表单" sheetId="1" r:id="rId1"/>
-    <sheet name="状态码" sheetId="2" r:id="rId2"/>
+    <sheet name="用户表" sheetId="1" r:id="rId1"/>
+    <sheet name="题库表" sheetId="3" r:id="rId2"/>
+    <sheet name="状态码" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +176,184 @@
   </si>
   <si>
     <t>用户表插入成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>题号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_options_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_options_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_options_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_options_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题选项A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题选项B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题选项C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题选项D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题题目答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：新题目
+1：试卷
+2：错题集
+3：已正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加题时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程题库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解答题库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解答题题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解答题题目答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>programme_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto increment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -289,13 +468,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,9 +500,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -320,8 +518,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,7 +660,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -699,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:I18"/>
+  <dimension ref="E4:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -715,23 +931,32 @@
     <col min="9" max="9" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:9" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="E4" s="4" t="s">
+    <row r="4" spans="5:10" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
@@ -746,7 +971,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
@@ -759,7 +984,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
@@ -772,7 +997,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
@@ -785,7 +1010,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="5:9" ht="72" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:10" ht="72" x14ac:dyDescent="0.25">
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
@@ -800,46 +1025,48 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="5:9" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="E13" s="5" t="s">
+    <row r="13" spans="5:10" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>5</v>
@@ -852,29 +1079,42 @@
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -891,10 +1131,455 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="11" max="12" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="9:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="I19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="9:14" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="I28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I23:N23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="D3:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -903,10 +1588,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D4" s="2">
@@ -944,7 +1629,7 @@
       <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/用户表单信息.xlsx
+++ b/用户表单信息.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,14 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择题题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择题选项A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择题选项B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,6 +346,53 @@
   </si>
   <si>
     <t>auto increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：新题目
+1：试卷
+2：错题集
+3：已正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题题目答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题选项A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项A为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项B为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项C为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项D为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题答案为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目已经存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -481,13 +520,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,6 +553,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,17 +589,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,29 +985,29 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:10" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
@@ -1026,27 +1079,27 @@
       </c>
     </row>
     <row r="13" spans="5:10" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.25">
@@ -1133,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1149,31 +1202,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="9:14" x14ac:dyDescent="0.25">
@@ -1190,7 +1243,7 @@
         <v>39</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>40</v>
@@ -1209,7 +1262,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="9:14" x14ac:dyDescent="0.25">
@@ -1225,7 +1278,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.25">
@@ -1241,7 +1294,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.25">
@@ -1257,7 +1310,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="9:14" x14ac:dyDescent="0.25">
@@ -1273,7 +1326,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="9:14" x14ac:dyDescent="0.25">
@@ -1289,69 +1342,69 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="9:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
+      <c r="I15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
     </row>
     <row r="16" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="9:14" x14ac:dyDescent="0.25">
@@ -1368,7 +1421,7 @@
         <v>39</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>40</v>
@@ -1376,10 +1429,10 @@
     </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>13</v>
@@ -1387,85 +1440,85 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="9:14" ht="57.6" x14ac:dyDescent="0.25">
       <c r="I19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="9:14" x14ac:dyDescent="0.25">
@@ -1482,7 +1535,7 @@
         <v>39</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>40</v>
@@ -1490,7 +1543,7 @@
     </row>
     <row r="26" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I26" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>48</v>
@@ -1501,15 +1554,15 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I27" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>38</v>
@@ -1517,50 +1570,50 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="9:14" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14">
-        <v>0</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1576,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:E15"/>
+  <dimension ref="D3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1588,10 +1641,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D4" s="2">
@@ -1669,19 +1722,63 @@
       <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D15" s="2">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="17">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
         <v>200</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1691,5 +1788,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>